--- a/attendence.xlsx
+++ b/attendence.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +559,21 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -582,6 +597,21 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -605,6 +635,21 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -628,6 +673,21 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -651,6 +711,21 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -674,6 +749,21 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -697,6 +787,21 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -718,6 +823,21 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="s">
         <v>11</v>
       </c>
     </row>
